--- a/auth/User.xlsx
+++ b/auth/User.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ideas\Course\auth\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Web-Frame\auth\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07829CFD-FC85-433B-BB92-04D3681F11E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82443588-5F19-4714-9FA0-3AA957646BF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1290" yWindow="1320" windowWidth="14400" windowHeight="11205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,23 +40,26 @@
     <t>Email</t>
   </si>
   <si>
-    <t>A03HCY.</t>
-  </si>
-  <si>
     <t>None</t>
   </si>
   <si>
-    <t>724f837b97aae421fe0679ca989ffaf4</t>
-  </si>
-  <si>
-    <t>acdphc@qq.com</t>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exa@a.a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -67,6 +70,15 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
@@ -90,12 +102,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -105,9 +120,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -422,7 +441,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="G4" sqref="G4:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -452,13 +471,13 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2">
         <v>3206921401</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
@@ -466,13 +485,16 @@
       <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{3D0B6DDD-AC06-4B86-93F2-C7F0E0F17C55}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId2"/>
 </worksheet>
 </file>